--- a/docs/PETemplate.xlsx
+++ b/docs/PETemplate.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25427"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jesus\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85765C97-C655-4CAA-B58E-D0F55A5E7195}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{10CF9335-EA31-4E1F-8AA3-AEFA341AF82D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57480" yWindow="780" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -160,7 +160,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="30">
+  <borders count="33">
     <border>
       <left/>
       <right/>
@@ -498,45 +498,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFC6C6C6"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
@@ -573,11 +534,89 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFC6C6C6"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFC6C6C6"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -655,18 +694,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -689,11 +716,35 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="1" fillId="4" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="4" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -999,23 +1050,23 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:L71"/>
+  <dimension ref="A1:L103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H69" sqref="H69"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F85" sqref="F85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="13" style="31" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" style="32" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.88671875" style="31" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="36" style="31" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="46.33203125" style="31" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.5546875" style="33" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13" style="31" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="31" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="13" style="31" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="13" style="27" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" style="28" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.88671875" style="27" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36" style="27" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="46.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.5546875" style="29" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13" style="27" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="13" style="27" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -1071,19 +1122,19 @@
       <c r="G4" s="3"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:12" s="34" customFormat="1" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C5" s="35"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37" t="s">
+    <row r="5" spans="1:12" s="30" customFormat="1" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C5" s="31"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="37"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="36"/>
-      <c r="J5" s="36"/>
-      <c r="K5" s="36"/>
-      <c r="L5" s="38"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="32"/>
+      <c r="J5" s="32"/>
+      <c r="K5" s="32"/>
+      <c r="L5" s="34"/>
     </row>
     <row r="6" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
@@ -1129,7 +1180,7 @@
       <c r="G7" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="H7" s="39" t="s">
+      <c r="H7" s="35" t="s">
         <v>15</v>
       </c>
       <c r="I7" s="16" t="s">
@@ -1149,7 +1200,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="20"/>
       <c r="G8" s="21"/>
-      <c r="H8" s="40"/>
+      <c r="H8" s="36"/>
       <c r="I8" s="20"/>
       <c r="J8" s="20"/>
       <c r="K8" s="20"/>
@@ -1165,7 +1216,7 @@
       <c r="E9" s="24"/>
       <c r="F9" s="24"/>
       <c r="G9" s="25"/>
-      <c r="H9" s="40"/>
+      <c r="H9" s="36"/>
       <c r="I9" s="24"/>
       <c r="J9" s="24"/>
       <c r="K9" s="24"/>
@@ -1181,7 +1232,7 @@
       <c r="E10" s="24"/>
       <c r="F10" s="24"/>
       <c r="G10" s="25"/>
-      <c r="H10" s="40"/>
+      <c r="H10" s="36"/>
       <c r="I10" s="24"/>
       <c r="J10" s="24"/>
       <c r="K10" s="24"/>
@@ -1197,7 +1248,7 @@
       <c r="E11" s="24"/>
       <c r="F11" s="24"/>
       <c r="G11" s="25"/>
-      <c r="H11" s="40"/>
+      <c r="H11" s="36"/>
       <c r="I11" s="24"/>
       <c r="J11" s="24"/>
       <c r="K11" s="24"/>
@@ -1213,7 +1264,7 @@
       <c r="E12" s="24"/>
       <c r="F12" s="24"/>
       <c r="G12" s="25"/>
-      <c r="H12" s="40"/>
+      <c r="H12" s="36"/>
       <c r="I12" s="24"/>
       <c r="J12" s="24"/>
       <c r="K12" s="24"/>
@@ -1229,7 +1280,7 @@
       <c r="E13" s="24"/>
       <c r="F13" s="24"/>
       <c r="G13" s="25"/>
-      <c r="H13" s="40"/>
+      <c r="H13" s="36"/>
       <c r="I13" s="24"/>
       <c r="J13" s="24"/>
       <c r="K13" s="24"/>
@@ -1245,7 +1296,7 @@
       <c r="E14" s="24"/>
       <c r="F14" s="24"/>
       <c r="G14" s="25"/>
-      <c r="H14" s="40"/>
+      <c r="H14" s="36"/>
       <c r="I14" s="24"/>
       <c r="J14" s="24"/>
       <c r="K14" s="24"/>
@@ -1261,7 +1312,7 @@
       <c r="E15" s="24"/>
       <c r="F15" s="24"/>
       <c r="G15" s="25"/>
-      <c r="H15" s="40"/>
+      <c r="H15" s="36"/>
       <c r="I15" s="24"/>
       <c r="J15" s="24"/>
       <c r="K15" s="24"/>
@@ -1277,7 +1328,7 @@
       <c r="E16" s="24"/>
       <c r="F16" s="24"/>
       <c r="G16" s="25"/>
-      <c r="H16" s="40"/>
+      <c r="H16" s="36"/>
       <c r="I16" s="24"/>
       <c r="J16" s="24"/>
       <c r="K16" s="24"/>
@@ -1293,7 +1344,7 @@
       <c r="E17" s="24"/>
       <c r="F17" s="24"/>
       <c r="G17" s="25"/>
-      <c r="H17" s="40"/>
+      <c r="H17" s="36"/>
       <c r="I17" s="24"/>
       <c r="J17" s="24"/>
       <c r="K17" s="24"/>
@@ -1309,7 +1360,7 @@
       <c r="E18" s="24"/>
       <c r="F18" s="24"/>
       <c r="G18" s="25"/>
-      <c r="H18" s="40"/>
+      <c r="H18" s="36"/>
       <c r="I18" s="24"/>
       <c r="J18" s="24"/>
       <c r="K18" s="24"/>
@@ -1325,7 +1376,7 @@
       <c r="E19" s="24"/>
       <c r="F19" s="24"/>
       <c r="G19" s="25"/>
-      <c r="H19" s="40"/>
+      <c r="H19" s="36"/>
       <c r="I19" s="24"/>
       <c r="J19" s="24"/>
       <c r="K19" s="24"/>
@@ -1341,7 +1392,7 @@
       <c r="E20" s="24"/>
       <c r="F20" s="24"/>
       <c r="G20" s="25"/>
-      <c r="H20" s="40"/>
+      <c r="H20" s="36"/>
       <c r="I20" s="24"/>
       <c r="J20" s="24"/>
       <c r="K20" s="24"/>
@@ -1357,7 +1408,7 @@
       <c r="E21" s="24"/>
       <c r="F21" s="24"/>
       <c r="G21" s="25"/>
-      <c r="H21" s="40"/>
+      <c r="H21" s="36"/>
       <c r="I21" s="24"/>
       <c r="J21" s="24"/>
       <c r="K21" s="24"/>
@@ -1373,7 +1424,7 @@
       <c r="E22" s="24"/>
       <c r="F22" s="24"/>
       <c r="G22" s="25"/>
-      <c r="H22" s="40"/>
+      <c r="H22" s="36"/>
       <c r="I22" s="24"/>
       <c r="J22" s="24"/>
       <c r="K22" s="24"/>
@@ -1389,7 +1440,7 @@
       <c r="E23" s="24"/>
       <c r="F23" s="24"/>
       <c r="G23" s="25"/>
-      <c r="H23" s="40"/>
+      <c r="H23" s="36"/>
       <c r="I23" s="24"/>
       <c r="J23" s="24"/>
       <c r="K23" s="24"/>
@@ -1405,7 +1456,7 @@
       <c r="E24" s="24"/>
       <c r="F24" s="24"/>
       <c r="G24" s="25"/>
-      <c r="H24" s="40"/>
+      <c r="H24" s="36"/>
       <c r="I24" s="24"/>
       <c r="J24" s="24"/>
       <c r="K24" s="24"/>
@@ -1421,7 +1472,7 @@
       <c r="E25" s="24"/>
       <c r="F25" s="24"/>
       <c r="G25" s="25"/>
-      <c r="H25" s="40"/>
+      <c r="H25" s="36"/>
       <c r="I25" s="24"/>
       <c r="J25" s="24"/>
       <c r="K25" s="24"/>
@@ -1437,7 +1488,7 @@
       <c r="E26" s="24"/>
       <c r="F26" s="24"/>
       <c r="G26" s="25"/>
-      <c r="H26" s="40"/>
+      <c r="H26" s="36"/>
       <c r="I26" s="24"/>
       <c r="J26" s="24"/>
       <c r="K26" s="24"/>
@@ -1453,7 +1504,7 @@
       <c r="E27" s="24"/>
       <c r="F27" s="24"/>
       <c r="G27" s="25"/>
-      <c r="H27" s="40"/>
+      <c r="H27" s="36"/>
       <c r="I27" s="24"/>
       <c r="J27" s="24"/>
       <c r="K27" s="24"/>
@@ -1469,7 +1520,7 @@
       <c r="E28" s="24"/>
       <c r="F28" s="24"/>
       <c r="G28" s="25"/>
-      <c r="H28" s="40"/>
+      <c r="H28" s="36"/>
       <c r="I28" s="24"/>
       <c r="J28" s="24"/>
       <c r="K28" s="24"/>
@@ -1485,7 +1536,7 @@
       <c r="E29" s="24"/>
       <c r="F29" s="24"/>
       <c r="G29" s="25"/>
-      <c r="H29" s="40"/>
+      <c r="H29" s="36"/>
       <c r="I29" s="24"/>
       <c r="J29" s="24"/>
       <c r="K29" s="24"/>
@@ -1501,7 +1552,7 @@
       <c r="E30" s="24"/>
       <c r="F30" s="24"/>
       <c r="G30" s="25"/>
-      <c r="H30" s="40"/>
+      <c r="H30" s="36"/>
       <c r="I30" s="24"/>
       <c r="J30" s="24"/>
       <c r="K30" s="24"/>
@@ -1517,7 +1568,7 @@
       <c r="E31" s="24"/>
       <c r="F31" s="24"/>
       <c r="G31" s="25"/>
-      <c r="H31" s="40"/>
+      <c r="H31" s="36"/>
       <c r="I31" s="24"/>
       <c r="J31" s="24"/>
       <c r="K31" s="24"/>
@@ -1533,7 +1584,7 @@
       <c r="E32" s="24"/>
       <c r="F32" s="24"/>
       <c r="G32" s="25"/>
-      <c r="H32" s="40"/>
+      <c r="H32" s="36"/>
       <c r="I32" s="24"/>
       <c r="J32" s="24"/>
       <c r="K32" s="24"/>
@@ -1549,7 +1600,7 @@
       <c r="E33" s="24"/>
       <c r="F33" s="24"/>
       <c r="G33" s="25"/>
-      <c r="H33" s="40"/>
+      <c r="H33" s="36"/>
       <c r="I33" s="24"/>
       <c r="J33" s="24"/>
       <c r="K33" s="24"/>
@@ -1565,7 +1616,7 @@
       <c r="E34" s="24"/>
       <c r="F34" s="24"/>
       <c r="G34" s="25"/>
-      <c r="H34" s="40"/>
+      <c r="H34" s="36"/>
       <c r="I34" s="24"/>
       <c r="J34" s="24"/>
       <c r="K34" s="24"/>
@@ -1581,7 +1632,7 @@
       <c r="E35" s="24"/>
       <c r="F35" s="24"/>
       <c r="G35" s="25"/>
-      <c r="H35" s="40"/>
+      <c r="H35" s="36"/>
       <c r="I35" s="24"/>
       <c r="J35" s="24"/>
       <c r="K35" s="24"/>
@@ -1597,7 +1648,7 @@
       <c r="E36" s="24"/>
       <c r="F36" s="24"/>
       <c r="G36" s="25"/>
-      <c r="H36" s="40"/>
+      <c r="H36" s="36"/>
       <c r="I36" s="24"/>
       <c r="J36" s="24"/>
       <c r="K36" s="24"/>
@@ -1613,7 +1664,7 @@
       <c r="E37" s="24"/>
       <c r="F37" s="24"/>
       <c r="G37" s="25"/>
-      <c r="H37" s="40"/>
+      <c r="H37" s="36"/>
       <c r="I37" s="24"/>
       <c r="J37" s="24"/>
       <c r="K37" s="24"/>
@@ -1629,7 +1680,7 @@
       <c r="E38" s="24"/>
       <c r="F38" s="24"/>
       <c r="G38" s="25"/>
-      <c r="H38" s="40"/>
+      <c r="H38" s="36"/>
       <c r="I38" s="24"/>
       <c r="J38" s="24"/>
       <c r="K38" s="24"/>
@@ -1645,7 +1696,7 @@
       <c r="E39" s="24"/>
       <c r="F39" s="24"/>
       <c r="G39" s="25"/>
-      <c r="H39" s="40"/>
+      <c r="H39" s="36"/>
       <c r="I39" s="24"/>
       <c r="J39" s="24"/>
       <c r="K39" s="24"/>
@@ -1661,7 +1712,7 @@
       <c r="E40" s="24"/>
       <c r="F40" s="24"/>
       <c r="G40" s="25"/>
-      <c r="H40" s="40"/>
+      <c r="H40" s="36"/>
       <c r="I40" s="24"/>
       <c r="J40" s="24"/>
       <c r="K40" s="24"/>
@@ -1677,7 +1728,7 @@
       <c r="E41" s="24"/>
       <c r="F41" s="24"/>
       <c r="G41" s="25"/>
-      <c r="H41" s="40"/>
+      <c r="H41" s="36"/>
       <c r="I41" s="24"/>
       <c r="J41" s="24"/>
       <c r="K41" s="24"/>
@@ -1693,7 +1744,7 @@
       <c r="E42" s="24"/>
       <c r="F42" s="24"/>
       <c r="G42" s="25"/>
-      <c r="H42" s="40"/>
+      <c r="H42" s="36"/>
       <c r="I42" s="24"/>
       <c r="J42" s="24"/>
       <c r="K42" s="24"/>
@@ -1709,7 +1760,7 @@
       <c r="E43" s="24"/>
       <c r="F43" s="24"/>
       <c r="G43" s="25"/>
-      <c r="H43" s="40"/>
+      <c r="H43" s="36"/>
       <c r="I43" s="24"/>
       <c r="J43" s="24"/>
       <c r="K43" s="24"/>
@@ -1725,7 +1776,7 @@
       <c r="E44" s="24"/>
       <c r="F44" s="24"/>
       <c r="G44" s="25"/>
-      <c r="H44" s="40"/>
+      <c r="H44" s="36"/>
       <c r="I44" s="24"/>
       <c r="J44" s="24"/>
       <c r="K44" s="24"/>
@@ -1741,7 +1792,7 @@
       <c r="E45" s="24"/>
       <c r="F45" s="24"/>
       <c r="G45" s="25"/>
-      <c r="H45" s="40"/>
+      <c r="H45" s="36"/>
       <c r="I45" s="24"/>
       <c r="J45" s="24"/>
       <c r="K45" s="24"/>
@@ -1757,7 +1808,7 @@
       <c r="E46" s="24"/>
       <c r="F46" s="24"/>
       <c r="G46" s="25"/>
-      <c r="H46" s="40"/>
+      <c r="H46" s="36"/>
       <c r="I46" s="24"/>
       <c r="J46" s="24"/>
       <c r="K46" s="24"/>
@@ -1773,7 +1824,7 @@
       <c r="E47" s="24"/>
       <c r="F47" s="24"/>
       <c r="G47" s="25"/>
-      <c r="H47" s="40"/>
+      <c r="H47" s="36"/>
       <c r="I47" s="24"/>
       <c r="J47" s="24"/>
       <c r="K47" s="24"/>
@@ -1789,7 +1840,7 @@
       <c r="E48" s="24"/>
       <c r="F48" s="24"/>
       <c r="G48" s="25"/>
-      <c r="H48" s="40"/>
+      <c r="H48" s="36"/>
       <c r="I48" s="24"/>
       <c r="J48" s="24"/>
       <c r="K48" s="24"/>
@@ -1805,7 +1856,7 @@
       <c r="E49" s="24"/>
       <c r="F49" s="24"/>
       <c r="G49" s="25"/>
-      <c r="H49" s="40"/>
+      <c r="H49" s="36"/>
       <c r="I49" s="24"/>
       <c r="J49" s="24"/>
       <c r="K49" s="24"/>
@@ -1821,7 +1872,7 @@
       <c r="E50" s="24"/>
       <c r="F50" s="24"/>
       <c r="G50" s="25"/>
-      <c r="H50" s="40"/>
+      <c r="H50" s="36"/>
       <c r="I50" s="24"/>
       <c r="J50" s="24"/>
       <c r="K50" s="24"/>
@@ -1837,7 +1888,7 @@
       <c r="E51" s="24"/>
       <c r="F51" s="24"/>
       <c r="G51" s="25"/>
-      <c r="H51" s="40"/>
+      <c r="H51" s="36"/>
       <c r="I51" s="24"/>
       <c r="J51" s="24"/>
       <c r="K51" s="24"/>
@@ -1853,7 +1904,7 @@
       <c r="E52" s="24"/>
       <c r="F52" s="24"/>
       <c r="G52" s="25"/>
-      <c r="H52" s="40"/>
+      <c r="H52" s="36"/>
       <c r="I52" s="24"/>
       <c r="J52" s="24"/>
       <c r="K52" s="24"/>
@@ -1869,7 +1920,7 @@
       <c r="E53" s="24"/>
       <c r="F53" s="24"/>
       <c r="G53" s="25"/>
-      <c r="H53" s="40"/>
+      <c r="H53" s="36"/>
       <c r="I53" s="24"/>
       <c r="J53" s="24"/>
       <c r="K53" s="24"/>
@@ -1885,7 +1936,7 @@
       <c r="E54" s="24"/>
       <c r="F54" s="24"/>
       <c r="G54" s="25"/>
-      <c r="H54" s="40"/>
+      <c r="H54" s="36"/>
       <c r="I54" s="24"/>
       <c r="J54" s="24"/>
       <c r="K54" s="24"/>
@@ -1901,7 +1952,7 @@
       <c r="E55" s="24"/>
       <c r="F55" s="24"/>
       <c r="G55" s="25"/>
-      <c r="H55" s="40"/>
+      <c r="H55" s="36"/>
       <c r="I55" s="24"/>
       <c r="J55" s="24"/>
       <c r="K55" s="24"/>
@@ -1917,7 +1968,7 @@
       <c r="E56" s="24"/>
       <c r="F56" s="24"/>
       <c r="G56" s="25"/>
-      <c r="H56" s="40"/>
+      <c r="H56" s="36"/>
       <c r="I56" s="24"/>
       <c r="J56" s="24"/>
       <c r="K56" s="24"/>
@@ -1933,7 +1984,7 @@
       <c r="E57" s="24"/>
       <c r="F57" s="24"/>
       <c r="G57" s="25"/>
-      <c r="H57" s="40"/>
+      <c r="H57" s="36"/>
       <c r="I57" s="24"/>
       <c r="J57" s="24"/>
       <c r="K57" s="24"/>
@@ -1949,7 +2000,7 @@
       <c r="E58" s="24"/>
       <c r="F58" s="24"/>
       <c r="G58" s="25"/>
-      <c r="H58" s="40"/>
+      <c r="H58" s="36"/>
       <c r="I58" s="24"/>
       <c r="J58" s="24"/>
       <c r="K58" s="24"/>
@@ -1965,7 +2016,7 @@
       <c r="E59" s="24"/>
       <c r="F59" s="24"/>
       <c r="G59" s="25"/>
-      <c r="H59" s="40"/>
+      <c r="H59" s="36"/>
       <c r="I59" s="24"/>
       <c r="J59" s="24"/>
       <c r="K59" s="24"/>
@@ -1981,7 +2032,7 @@
       <c r="E60" s="24"/>
       <c r="F60" s="24"/>
       <c r="G60" s="25"/>
-      <c r="H60" s="40"/>
+      <c r="H60" s="36"/>
       <c r="I60" s="24"/>
       <c r="J60" s="24"/>
       <c r="K60" s="24"/>
@@ -1997,7 +2048,7 @@
       <c r="E61" s="24"/>
       <c r="F61" s="24"/>
       <c r="G61" s="25"/>
-      <c r="H61" s="40"/>
+      <c r="H61" s="36"/>
       <c r="I61" s="24"/>
       <c r="J61" s="24"/>
       <c r="K61" s="24"/>
@@ -2013,7 +2064,7 @@
       <c r="E62" s="24"/>
       <c r="F62" s="24"/>
       <c r="G62" s="25"/>
-      <c r="H62" s="40"/>
+      <c r="H62" s="36"/>
       <c r="I62" s="24"/>
       <c r="J62" s="24"/>
       <c r="K62" s="24"/>
@@ -2029,7 +2080,7 @@
       <c r="E63" s="24"/>
       <c r="F63" s="24"/>
       <c r="G63" s="25"/>
-      <c r="H63" s="40"/>
+      <c r="H63" s="36"/>
       <c r="I63" s="24"/>
       <c r="J63" s="24"/>
       <c r="K63" s="24"/>
@@ -2045,7 +2096,7 @@
       <c r="E64" s="24"/>
       <c r="F64" s="24"/>
       <c r="G64" s="25"/>
-      <c r="H64" s="40"/>
+      <c r="H64" s="36"/>
       <c r="I64" s="24"/>
       <c r="J64" s="24"/>
       <c r="K64" s="24"/>
@@ -2061,7 +2112,7 @@
       <c r="E65" s="24"/>
       <c r="F65" s="24"/>
       <c r="G65" s="25"/>
-      <c r="H65" s="40"/>
+      <c r="H65" s="36"/>
       <c r="I65" s="24"/>
       <c r="J65" s="24"/>
       <c r="K65" s="24"/>
@@ -2077,7 +2128,7 @@
       <c r="E66" s="24"/>
       <c r="F66" s="24"/>
       <c r="G66" s="25"/>
-      <c r="H66" s="40"/>
+      <c r="H66" s="36"/>
       <c r="I66" s="24"/>
       <c r="J66" s="24"/>
       <c r="K66" s="24"/>
@@ -2093,7 +2144,7 @@
       <c r="E67" s="24"/>
       <c r="F67" s="24"/>
       <c r="G67" s="25"/>
-      <c r="H67" s="40"/>
+      <c r="H67" s="36"/>
       <c r="I67" s="24"/>
       <c r="J67" s="24"/>
       <c r="K67" s="24"/>
@@ -2109,7 +2160,7 @@
       <c r="E68" s="24"/>
       <c r="F68" s="24"/>
       <c r="G68" s="25"/>
-      <c r="H68" s="40"/>
+      <c r="H68" s="36"/>
       <c r="I68" s="24"/>
       <c r="J68" s="24"/>
       <c r="K68" s="24"/>
@@ -2125,7 +2176,7 @@
       <c r="E69" s="24"/>
       <c r="F69" s="24"/>
       <c r="G69" s="25"/>
-      <c r="H69" s="40"/>
+      <c r="H69" s="36"/>
       <c r="I69" s="24"/>
       <c r="J69" s="24"/>
       <c r="K69" s="24"/>
@@ -2141,27 +2192,475 @@
       <c r="E70" s="24"/>
       <c r="F70" s="24"/>
       <c r="G70" s="25"/>
-      <c r="H70" s="40"/>
+      <c r="H70" s="36"/>
       <c r="I70" s="24"/>
       <c r="J70" s="24"/>
       <c r="K70" s="24"/>
       <c r="L70" s="26"/>
     </row>
-    <row r="71" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
-      <c r="C71" s="27">
+      <c r="C71" s="38">
         <v>64</v>
       </c>
-      <c r="D71" s="28"/>
-      <c r="E71" s="28"/>
-      <c r="F71" s="28"/>
-      <c r="G71" s="29"/>
-      <c r="H71" s="41"/>
-      <c r="I71" s="28"/>
-      <c r="J71" s="28"/>
-      <c r="K71" s="28"/>
-      <c r="L71" s="30"/>
+      <c r="D71" s="39"/>
+      <c r="E71" s="39"/>
+      <c r="F71" s="39"/>
+      <c r="G71" s="40"/>
+      <c r="H71" s="36"/>
+      <c r="I71" s="39"/>
+      <c r="J71" s="39"/>
+      <c r="K71" s="39"/>
+      <c r="L71" s="41"/>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C72" s="23">
+        <v>65</v>
+      </c>
+      <c r="D72" s="24"/>
+      <c r="E72" s="24"/>
+      <c r="F72" s="24"/>
+      <c r="G72" s="25"/>
+      <c r="H72" s="36"/>
+      <c r="I72" s="24"/>
+      <c r="J72" s="24"/>
+      <c r="K72" s="24"/>
+      <c r="L72" s="26"/>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C73" s="38">
+        <v>66</v>
+      </c>
+      <c r="D73" s="39"/>
+      <c r="E73" s="39"/>
+      <c r="F73" s="39"/>
+      <c r="G73" s="40"/>
+      <c r="H73" s="36"/>
+      <c r="I73" s="39"/>
+      <c r="J73" s="39"/>
+      <c r="K73" s="39"/>
+      <c r="L73" s="41"/>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C74" s="23">
+        <v>67</v>
+      </c>
+      <c r="D74" s="24"/>
+      <c r="E74" s="24"/>
+      <c r="F74" s="24"/>
+      <c r="G74" s="25"/>
+      <c r="H74" s="36"/>
+      <c r="I74" s="24"/>
+      <c r="J74" s="24"/>
+      <c r="K74" s="24"/>
+      <c r="L74" s="26"/>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C75" s="38">
+        <v>68</v>
+      </c>
+      <c r="D75" s="39"/>
+      <c r="E75" s="39"/>
+      <c r="F75" s="39"/>
+      <c r="G75" s="40"/>
+      <c r="H75" s="36"/>
+      <c r="I75" s="39"/>
+      <c r="J75" s="39"/>
+      <c r="K75" s="39"/>
+      <c r="L75" s="41"/>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C76" s="23">
+        <v>69</v>
+      </c>
+      <c r="D76" s="24"/>
+      <c r="E76" s="24"/>
+      <c r="F76" s="24"/>
+      <c r="G76" s="25"/>
+      <c r="H76" s="36"/>
+      <c r="I76" s="24"/>
+      <c r="J76" s="24"/>
+      <c r="K76" s="24"/>
+      <c r="L76" s="26"/>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C77" s="23">
+        <v>70</v>
+      </c>
+      <c r="D77" s="24"/>
+      <c r="E77" s="24"/>
+      <c r="F77" s="24"/>
+      <c r="G77" s="25"/>
+      <c r="H77" s="36"/>
+      <c r="I77" s="24"/>
+      <c r="J77" s="24"/>
+      <c r="K77" s="24"/>
+      <c r="L77" s="26"/>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C78" s="38">
+        <v>71</v>
+      </c>
+      <c r="D78" s="39"/>
+      <c r="E78" s="39"/>
+      <c r="F78" s="39"/>
+      <c r="G78" s="40"/>
+      <c r="H78" s="36"/>
+      <c r="I78" s="39"/>
+      <c r="J78" s="39"/>
+      <c r="K78" s="39"/>
+      <c r="L78" s="41"/>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C79" s="23">
+        <v>72</v>
+      </c>
+      <c r="D79" s="24"/>
+      <c r="E79" s="24"/>
+      <c r="F79" s="24"/>
+      <c r="G79" s="25"/>
+      <c r="H79" s="36"/>
+      <c r="I79" s="24"/>
+      <c r="J79" s="24"/>
+      <c r="K79" s="24"/>
+      <c r="L79" s="26"/>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C80" s="38">
+        <v>73</v>
+      </c>
+      <c r="D80" s="39"/>
+      <c r="E80" s="39"/>
+      <c r="F80" s="39"/>
+      <c r="G80" s="40"/>
+      <c r="H80" s="36"/>
+      <c r="I80" s="39"/>
+      <c r="J80" s="39"/>
+      <c r="K80" s="39"/>
+      <c r="L80" s="41"/>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C81" s="23">
+        <v>74</v>
+      </c>
+      <c r="D81" s="24"/>
+      <c r="E81" s="24"/>
+      <c r="F81" s="24"/>
+      <c r="G81" s="25"/>
+      <c r="H81" s="36"/>
+      <c r="I81" s="24"/>
+      <c r="J81" s="24"/>
+      <c r="K81" s="24"/>
+      <c r="L81" s="26"/>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C82" s="38">
+        <v>75</v>
+      </c>
+      <c r="D82" s="39"/>
+      <c r="E82" s="39"/>
+      <c r="F82" s="39"/>
+      <c r="G82" s="40"/>
+      <c r="H82" s="36"/>
+      <c r="I82" s="39"/>
+      <c r="J82" s="39"/>
+      <c r="K82" s="39"/>
+      <c r="L82" s="41"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C83" s="23">
+        <v>76</v>
+      </c>
+      <c r="D83" s="24"/>
+      <c r="E83" s="24"/>
+      <c r="F83" s="24"/>
+      <c r="G83" s="25"/>
+      <c r="H83" s="36"/>
+      <c r="I83" s="24"/>
+      <c r="J83" s="24"/>
+      <c r="K83" s="24"/>
+      <c r="L83" s="26"/>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C84" s="23">
+        <v>77</v>
+      </c>
+      <c r="D84" s="24"/>
+      <c r="E84" s="24"/>
+      <c r="F84" s="24"/>
+      <c r="G84" s="25"/>
+      <c r="H84" s="36"/>
+      <c r="I84" s="24"/>
+      <c r="J84" s="24"/>
+      <c r="K84" s="24"/>
+      <c r="L84" s="26"/>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C85" s="38">
+        <v>78</v>
+      </c>
+      <c r="D85" s="39"/>
+      <c r="E85" s="39"/>
+      <c r="F85" s="39"/>
+      <c r="G85" s="40"/>
+      <c r="H85" s="36"/>
+      <c r="I85" s="39"/>
+      <c r="J85" s="39"/>
+      <c r="K85" s="39"/>
+      <c r="L85" s="41"/>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C86" s="23">
+        <v>79</v>
+      </c>
+      <c r="D86" s="24"/>
+      <c r="E86" s="24"/>
+      <c r="F86" s="24"/>
+      <c r="G86" s="25"/>
+      <c r="H86" s="36"/>
+      <c r="I86" s="24"/>
+      <c r="J86" s="24"/>
+      <c r="K86" s="24"/>
+      <c r="L86" s="26"/>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C87" s="23">
+        <v>80</v>
+      </c>
+      <c r="D87" s="24"/>
+      <c r="E87" s="24"/>
+      <c r="F87" s="24"/>
+      <c r="G87" s="25"/>
+      <c r="H87" s="36"/>
+      <c r="I87" s="24"/>
+      <c r="J87" s="24"/>
+      <c r="K87" s="24"/>
+      <c r="L87" s="26"/>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C88" s="38">
+        <v>81</v>
+      </c>
+      <c r="D88" s="39"/>
+      <c r="E88" s="39"/>
+      <c r="F88" s="39"/>
+      <c r="G88" s="40"/>
+      <c r="H88" s="36"/>
+      <c r="I88" s="39"/>
+      <c r="J88" s="39"/>
+      <c r="K88" s="39"/>
+      <c r="L88" s="41"/>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C89" s="23">
+        <v>82</v>
+      </c>
+      <c r="D89" s="24"/>
+      <c r="E89" s="24"/>
+      <c r="F89" s="24"/>
+      <c r="G89" s="25"/>
+      <c r="H89" s="36"/>
+      <c r="I89" s="24"/>
+      <c r="J89" s="24"/>
+      <c r="K89" s="24"/>
+      <c r="L89" s="26"/>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C90" s="38">
+        <v>83</v>
+      </c>
+      <c r="D90" s="39"/>
+      <c r="E90" s="39"/>
+      <c r="F90" s="39"/>
+      <c r="G90" s="40"/>
+      <c r="H90" s="36"/>
+      <c r="I90" s="39"/>
+      <c r="J90" s="39"/>
+      <c r="K90" s="39"/>
+      <c r="L90" s="41"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C91" s="23">
+        <v>84</v>
+      </c>
+      <c r="D91" s="24"/>
+      <c r="E91" s="24"/>
+      <c r="F91" s="24"/>
+      <c r="G91" s="25"/>
+      <c r="H91" s="36"/>
+      <c r="I91" s="24"/>
+      <c r="J91" s="24"/>
+      <c r="K91" s="24"/>
+      <c r="L91" s="26"/>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C92" s="38">
+        <v>85</v>
+      </c>
+      <c r="D92" s="39"/>
+      <c r="E92" s="39"/>
+      <c r="F92" s="39"/>
+      <c r="G92" s="40"/>
+      <c r="H92" s="36"/>
+      <c r="I92" s="39"/>
+      <c r="J92" s="39"/>
+      <c r="K92" s="39"/>
+      <c r="L92" s="41"/>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C93" s="23">
+        <v>86</v>
+      </c>
+      <c r="D93" s="24"/>
+      <c r="E93" s="24"/>
+      <c r="F93" s="24"/>
+      <c r="G93" s="25"/>
+      <c r="H93" s="36"/>
+      <c r="I93" s="24"/>
+      <c r="J93" s="24"/>
+      <c r="K93" s="24"/>
+      <c r="L93" s="26"/>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C94" s="23">
+        <v>87</v>
+      </c>
+      <c r="D94" s="24"/>
+      <c r="E94" s="24"/>
+      <c r="F94" s="24"/>
+      <c r="G94" s="25"/>
+      <c r="H94" s="36"/>
+      <c r="I94" s="24"/>
+      <c r="J94" s="24"/>
+      <c r="K94" s="24"/>
+      <c r="L94" s="26"/>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C95" s="23">
+        <v>88</v>
+      </c>
+      <c r="D95" s="24"/>
+      <c r="E95" s="24"/>
+      <c r="F95" s="24"/>
+      <c r="G95" s="25"/>
+      <c r="H95" s="36"/>
+      <c r="I95" s="24"/>
+      <c r="J95" s="24"/>
+      <c r="K95" s="24"/>
+      <c r="L95" s="26"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C96" s="38">
+        <v>89</v>
+      </c>
+      <c r="D96" s="39"/>
+      <c r="E96" s="39"/>
+      <c r="F96" s="39"/>
+      <c r="G96" s="40"/>
+      <c r="H96" s="36"/>
+      <c r="I96" s="39"/>
+      <c r="J96" s="39"/>
+      <c r="K96" s="39"/>
+      <c r="L96" s="41"/>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C97" s="23">
+        <v>90</v>
+      </c>
+      <c r="D97" s="24"/>
+      <c r="E97" s="24"/>
+      <c r="F97" s="24"/>
+      <c r="G97" s="25"/>
+      <c r="H97" s="36"/>
+      <c r="I97" s="24"/>
+      <c r="J97" s="24"/>
+      <c r="K97" s="24"/>
+      <c r="L97" s="26"/>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C98" s="23">
+        <v>91</v>
+      </c>
+      <c r="D98" s="24"/>
+      <c r="E98" s="24"/>
+      <c r="F98" s="24"/>
+      <c r="G98" s="25"/>
+      <c r="H98" s="36"/>
+      <c r="I98" s="24"/>
+      <c r="J98" s="24"/>
+      <c r="K98" s="24"/>
+      <c r="L98" s="26"/>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C99" s="38">
+        <v>92</v>
+      </c>
+      <c r="D99" s="39"/>
+      <c r="E99" s="39"/>
+      <c r="F99" s="39"/>
+      <c r="G99" s="40"/>
+      <c r="H99" s="36"/>
+      <c r="I99" s="39"/>
+      <c r="J99" s="39"/>
+      <c r="K99" s="39"/>
+      <c r="L99" s="41"/>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C100" s="23">
+        <v>93</v>
+      </c>
+      <c r="D100" s="24"/>
+      <c r="E100" s="24"/>
+      <c r="F100" s="24"/>
+      <c r="G100" s="25"/>
+      <c r="H100" s="36"/>
+      <c r="I100" s="24"/>
+      <c r="J100" s="24"/>
+      <c r="K100" s="24"/>
+      <c r="L100" s="26"/>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C101" s="38">
+        <v>94</v>
+      </c>
+      <c r="D101" s="39"/>
+      <c r="E101" s="39"/>
+      <c r="F101" s="39"/>
+      <c r="G101" s="40"/>
+      <c r="H101" s="36"/>
+      <c r="I101" s="39"/>
+      <c r="J101" s="39"/>
+      <c r="K101" s="39"/>
+      <c r="L101" s="41"/>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C102" s="23">
+        <v>95</v>
+      </c>
+      <c r="D102" s="24"/>
+      <c r="E102" s="24"/>
+      <c r="F102" s="24"/>
+      <c r="G102" s="25"/>
+      <c r="H102" s="36"/>
+      <c r="I102" s="24"/>
+      <c r="J102" s="24"/>
+      <c r="K102" s="24"/>
+      <c r="L102" s="26"/>
+    </row>
+    <row r="103" spans="3:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C103" s="42">
+        <v>96</v>
+      </c>
+      <c r="D103" s="43"/>
+      <c r="E103" s="43"/>
+      <c r="F103" s="43"/>
+      <c r="G103" s="44"/>
+      <c r="H103" s="37"/>
+      <c r="I103" s="43"/>
+      <c r="J103" s="43"/>
+      <c r="K103" s="43"/>
+      <c r="L103" s="45"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
